--- a/analyses/usability_rating/Supplementary_Table_2_method_usability.xlsx
+++ b/analyses/usability_rating/Supplementary_Table_2_method_usability.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfisher2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gileadconnect.sharepoint.com/sites/MB_RD/Shared Documents/Precision Medicine/22_Publications/predicting_protein_from_RNA/Genome Biology Revised Version 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0325CD3-103F-4021-8389-4F043773C67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{F0325CD3-103F-4021-8389-4F043773C67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77396F96-2AE5-4F42-B533-E9EC2F75DD8A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usability" sheetId="2" r:id="rId1"/>
-    <sheet name="references" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">usability!$A$1:$Q$10</definedName>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Methods</t>
   </si>
@@ -45,33 +44,6 @@
     <t>Tutorial</t>
   </si>
   <si>
-    <t>Function documentation</t>
-  </si>
-  <si>
-    <t>Peer review</t>
-  </si>
-  <si>
-    <t>Evaluation of accuracy</t>
-  </si>
-  <si>
-    <t>Evaluation of robustness</t>
-  </si>
-  <si>
-    <t>Benchmarking</t>
-  </si>
-  <si>
-    <t>The tutorial shows how to run the method in a non-native language (i.e. R to Python or viceversa)</t>
-  </si>
-  <si>
-    <t>The purpose and usage of functions/commands is documented</t>
-  </si>
-  <si>
-    <t>The parameters of functions/commands are documented</t>
-  </si>
-  <si>
-    <t>The output of functions/commands is documented</t>
-  </si>
-  <si>
     <t>Seurat</t>
   </si>
   <si>
@@ -96,335 +68,6 @@
     <t>BABEL</t>
   </si>
   <si>
-    <t>https://satijalab.org/seurat/articles/multimodal_reference_mapping.html</t>
-  </si>
-  <si>
-    <t>https://github.com/DanHanh/scLinear</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/SPECK/vignettes/SPECKVignette.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/SongqiZhou/scMMT/tree/main/test</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The tutorial shows the method's usefulness on several (&gt;2 = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF93C47D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>), 2 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFD966"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>), 1 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF6B26B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> different single-cell protein datasets.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The paper showsprotein prediction on several (&gt;2 = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF93C47D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>), two (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFD966"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>), one (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF6B26B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> real datasets.</t>
-    </r>
-  </si>
-  <si>
-    <t>The paper quantifies the accuracy of the protein imputation given a simulated dataset</t>
-  </si>
-  <si>
-    <r>
-      <t>The paper assessed protein imputation robustness (to eg.noise, feature selection, down-sampling, parameter changes,stability) in one (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFE69138"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) , two (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFD966"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">), or several (&gt;2 = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF6AA84F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) ways</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>The imputation method is described in a paper published in a peer-reviewed journal</t>
-  </si>
-  <si>
-    <t>1, celltype in training data, tissue, lab protocol</t>
-  </si>
-  <si>
-    <t>0.25, dropout rate</t>
-  </si>
-  <si>
-    <t>0.25,cell subset size</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>primarily concerned with predicting celltype</t>
-  </si>
-  <si>
-    <t>primarily concerned with predicting ATAC regions</t>
-  </si>
-  <si>
-    <t>Following the tutorial step by step leads to no issues/errors in the pursuit of generating predicted protein values (other errors regarding preprocessing, visualisation etc. are permitted) works easily (1), some minor issues (0.5), fatal obstacle (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, various package version conflicts, had to work with underlying python scripts in repo instead of using R package. More precise version specifications needed for careful installation. </t>
-  </si>
-  <si>
-    <t>0, does not show model training for own data, only uses pre trained model</t>
-  </si>
-  <si>
-    <t>0.5, only prediction functions documented</t>
-  </si>
-  <si>
-    <t>0. no tutorial for protein prediction. Only ATAC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5, some software conflicts caue sciPENN_API function to fail. Fix added as github issue but not pushed to repo at time of writing. Also unexplaind train function hanging without error on example data. But successful use of tutorial steps on Hao et al. </t>
-  </si>
-  <si>
-    <t>0.5, found numpy array type issue in scMMT_API function. Fix added as github issue but not pushed to repo at time of writing. Once manually corrected, tutorial method works.</t>
-  </si>
-  <si>
-    <t>paper is preoccupied with cell type annotation, only minor investigation of protein prediction</t>
-  </si>
-  <si>
-    <t>A tutorial or vignette for protein imputation is available</t>
-  </si>
-  <si>
-    <t>1, https://drive.google.com/drive/folders/1iY4s76UYNMFvF6v3XN4JxD9gM77NIxoH</t>
-  </si>
-  <si>
-    <t>1, https://docs.scvi-tools.org/en/stable/tutorials/notebooks/scrna/scarches_scvi_tools.html</t>
-  </si>
-  <si>
-    <t>0.5, prediction only, no model training,  https://github.com/zhouzilu/cTPnet/tree/master/vignette</t>
-  </si>
-  <si>
-    <t>0.75, well documented but ambiguous about protein prediction</t>
-  </si>
-  <si>
-    <t>The paper compares the performances of the method against several (&gt;2 = 1), two (0.5), one (0.25) or no (0) other protein imputation methods</t>
-  </si>
-  <si>
-    <t>1,  KRR_new, Babel_Dance, and Vanilla_NN</t>
-  </si>
-  <si>
-    <t>1, ALRA, MAGIC cTPnet</t>
-  </si>
-  <si>
-    <t>1, sciPENN, totalVI, WNN</t>
-  </si>
-  <si>
-    <t>0.25,  Seurat v3</t>
-  </si>
-  <si>
-    <t>0.5, Seurat4, totalVI</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -480,13 +123,16 @@
   </si>
   <si>
     <t>between dataset pred. corr.</t>
+  </si>
+  <si>
+    <t>scTranslator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -543,48 +189,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF93C47D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFD966"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFF6B26B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFE69138"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF6AA84F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -621,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -642,9 +246,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -662,9 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,141 +485,141 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1060,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="O3">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Q3">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -1080,9 +678,9 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1117,20 +715,20 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>0.25</v>
       </c>
-      <c r="N4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O4">
-        <v>0.49</v>
+      <c r="N4" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.44</v>
       </c>
       <c r="P4">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -1141,9 +739,9 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1178,20 +776,20 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>0.5</v>
       </c>
-      <c r="N5">
-        <v>0.17</v>
-      </c>
-      <c r="O5">
-        <v>0.49</v>
+      <c r="N5" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.67</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -1202,9 +800,9 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1239,17 +837,17 @@
       <c r="L6">
         <v>0.25</v>
       </c>
-      <c r="M6" s="15">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0.62</v>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.89</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.79</v>
       </c>
       <c r="P6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1263,9 +861,9 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1300,20 +898,20 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="15">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0.71</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.22</v>
       </c>
       <c r="P7">
-        <v>0.78</v>
+        <v>0.33</v>
       </c>
       <c r="Q7">
-        <v>0.92</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -1324,9 +922,9 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1364,17 +962,17 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>0.94</v>
-      </c>
-      <c r="O8">
-        <v>0.67</v>
+      <c r="N8" s="14">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.89</v>
       </c>
       <c r="P8">
-        <v>0.95</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q8">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -1385,9 +983,9 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1422,20 +1020,20 @@
       <c r="L9">
         <v>0.25</v>
       </c>
-      <c r="M9" s="15">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="M9" s="14">
+        <v>1</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="O9" s="14">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0.95</v>
+        <v>0.44</v>
       </c>
       <c r="Q9">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -1446,9 +1044,9 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1483,20 +1081,20 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>0.25</v>
       </c>
-      <c r="N10">
-        <v>0.53</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0.67</v>
+      </c>
+      <c r="Q10">
         <v>0.44</v>
-      </c>
-      <c r="P10">
-        <v>0.95</v>
-      </c>
-      <c r="Q10">
-        <v>0.78</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -1507,23 +1105,58 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="Q11" s="8"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.11</v>
+      </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -1533,14 +1166,14 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1557,82 +1190,82 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-    </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="P15" s="12"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:17" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:17" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:17" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:Q10" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Q10">
@@ -1655,460 +1288,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="55.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>0.25</v>
-      </c>
-      <c r="E4">
-        <v>0.25</v>
-      </c>
-      <c r="F4">
-        <v>0.25</v>
-      </c>
-      <c r="G4">
-        <v>0.25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4">
-        <v>0.25</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.25</v>
-      </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="68.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8BEFF852-07A6-4FA1-8874-CBF8D71D3F4D}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{AA3FA830-26CF-4B32-A224-9DD856EF3540}"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://docs.scvi-tools.org/en/stable/tutorials/notebooks/scrna/scarches_scvi_tools.html" xr:uid="{2496EFF5-78CB-4631-A334-2E90BD8FDD3E}"/>
-    <hyperlink ref="H2" r:id="rId4" display="https://github.com/zhouzilu/cTPnet/tree/master/vignette" xr:uid="{30A86E3E-8804-4887-A990-41A383A7D679}"/>
-    <hyperlink ref="I2" r:id="rId5" display="https://drive.google.com/drive/folders/1iY4s76UYNMFvF6v3XN4JxD9gM77NIxoH" xr:uid="{E212A03E-9ADA-42FA-9D0D-DF016C0228C8}"/>
-    <hyperlink ref="J2" r:id="rId6" display="https://github.com/wukevin/babel/blob/main/jupyter/pbmc_imputed_rna_eval_clean.ipynb" xr:uid="{82D0D848-F7DA-4A12-B542-2AA8E6ACE372}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{30692890-F47C-4BB5-B2BD-4DBFDD521432}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa24f4b6-62ee-4344-b71a-2791a50ff89c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="09687c8a-c3d8-4c37-9d00-fa449f830ca7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010047C2688F350D34418694D06B0DFE9E7D" ma:contentTypeVersion="42" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed8a1816635117e824fae66b4f7e4d8a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d5411b28-4f51-4e0a-9c4c-44287be60acb" xmlns:ns3="ba429535-e712-4bc3-871a-6642c5b23ec3" xmlns:ns4="aa24f4b6-62ee-4344-b71a-2791a50ff89c" xmlns:ns5="09687c8a-c3d8-4c37-9d00-fa449f830ca7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88e82db26961f3b88bdcb30861516be3" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010047C2688F350D34418694D06B0DFE9E7D" ma:contentTypeVersion="42" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="beea6c8e7b3bf9d0cda0dac6cb1f168b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d5411b28-4f51-4e0a-9c4c-44287be60acb" xmlns:ns3="ba429535-e712-4bc3-871a-6642c5b23ec3" xmlns:ns4="aa24f4b6-62ee-4344-b71a-2791a50ff89c" xmlns:ns5="09687c8a-c3d8-4c37-9d00-fa449f830ca7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="868340dc822ce651128f49600e549df5" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="d5411b28-4f51-4e0a-9c4c-44287be60acb"/>
     <xsd:import namespace="ba429535-e712-4bc3-871a-6642c5b23ec3"/>
     <xsd:import namespace="aa24f4b6-62ee-4344-b71a-2791a50ff89c"/>
@@ -2377,7 +1570,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2386,25 +1579,42 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa24f4b6-62ee-4344-b71a-2791a50ff89c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="09687c8a-c3d8-4c37-9d00-fa449f830ca7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB78061-6C55-4547-8DF9-16173BD187E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D0339B-C4DF-468C-9709-FB3EB40E4A4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa24f4b6-62ee-4344-b71a-2791a50ff89c"/>
+    <ds:schemaRef ds:uri="09687c8a-c3d8-4c37-9d00-fa449f830ca7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03EAA8C5-030A-4791-8F11-B82A68063378}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42FD025A-3C55-49C5-A78E-EEF55E54872D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d5411b28-4f51-4e0a-9c4c-44287be60acb"/>
+    <ds:schemaRef ds:uri="ba429535-e712-4bc3-871a-6642c5b23ec3"/>
+    <ds:schemaRef ds:uri="aa24f4b6-62ee-4344-b71a-2791a50ff89c"/>
+    <ds:schemaRef ds:uri="09687c8a-c3d8-4c37-9d00-fa449f830ca7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D0339B-C4DF-468C-9709-FB3EB40E4A4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03EAA8C5-030A-4791-8F11-B82A68063378}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>